--- a/biology/Biochimie/Liaison_hydrogène/Liaison_hydrogène.xlsx
+++ b/biology/Biochimie/Liaison_hydrogène/Liaison_hydrogène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liaison_hydrog%C3%A8ne</t>
+          <t>Liaison_hydrogène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liaison hydrogène ou pont hydrogène est une force intermoléculaire ou intramoléculaire impliquant un atome d'hydrogène et un atome électronégatif comme l'oxygène, l'azote et le fluor. L'intensité d'une liaison hydrogène est intermédiaire entre celle d'une liaison covalente et celle des forces de van der Waals (en général les liaisons hydrogène sont plus fortes que les interactions de van der Waals).
-On pensait à l'origine que l'électron de l'atome d'hydrogène était partagé entre les molécules liées[1], et donc que cette liaison hydrogène était quasi-covalente. On sait aujourd'hui qu'elle est à 90 % électrostatique[2].
+On pensait à l'origine que l'électron de l'atome d'hydrogène était partagé entre les molécules liées, et donc que cette liaison hydrogène était quasi-covalente. On sait aujourd'hui qu'elle est à 90 % électrostatique.
 Pour que cette liaison s'établisse, il faut être en présence d'un donneur de liaison hydrogène et d'un accepteur :
 le donneur possédant une case quantique vide est composé d'un composé à H acide, c'est-à-dire un atome d'hydrogène lié à un hétéroatome (comme dans les amines, alcools, thiols) ;
 l'accepteur est composé d'un hétéroatome (uniquement azote, oxygène ou fluor) porteur d'un doublet non liant.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liaison_hydrog%C3%A8ne</t>
+          <t>Liaison_hydrogène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Causes de la liaison hydrogène</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La liaison est due à la polarité de certaines molécules (qui contiennent un atome d'hydrogène et au moins un autre atome plus électronégatif). Si on prend l'exemple d'une molécule d'eau, l'atome d'oxygène étant plus électronégatif que les deux atomes d'hydrogène, celui-ci attirera plus les électrons engagés dans les liaisons covalentes vers lui que les atomes d'hydrogène à ses côtés. Ceci fait que l'atome d'oxygène possèdera alors deux charges négatives partielles, alors que chaque atome d'hydrogène possèdera une charge partielle positive. La molécule est alors polarisée à cause de cette différence de charge, car les barycentres de ses charges partielles ne sont pas confondus (auquel cas elle serait apolaire).
 Ce phénomène fait que les pôles positifs (les atomes d'hydrogène) sont attirés par des entités de charge négative (anion, pôle négatif, etc.), et le pôle négatif (l'oxygène) sera attiré par des entités de charge positive (cation, pôle positif d'une autre molécule polarisée, etc.). La molécule d'eau peut donc former quatre liaisons hydrogène qui lui fournissent nombre de ses propriétés particulières.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liaison_hydrog%C3%A8ne</t>
+          <t>Liaison_hydrogène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Conséquences de la liaison hydrogène</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La liaison hydrogène s'établit alors entre toutes les molécules présentant les caractéristiques précédemment évoquées ; on considère par exemple le cas d'un acide carboxylique (R-COOH).
 On remarque que toutes les molécules sont liées entre elles au niveau de la fonction alcool.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liaison_hydrog%C3%A8ne</t>
+          <t>Liaison_hydrogène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,9 +601,11 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On distingue en général trois types de liaisons hydrogène[4] (sachant que les doublets covalents font entre 100 et 500 kJ/mol) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On distingue en général trois types de liaisons hydrogène (sachant que les doublets covalents font entre 100 et 500 kJ/mol) :
 faibles avec des enthalpies de liaison situées entre 1 et 4 kcal/mol :
 les liaisons hydrogène de cette intensité sont semblables aux forces de van der Waals. Elles sont de catégorie électrostatique. Dans une interaction de ce type, la distance entre les atomes se situe entre 2,2 et 4,0 Å et l’angle que forme ces liens se situe entre 90° et 150°,
 les meilleurs exemples de ponts hydrogène faibles sont les dimères en phase gazeuse contenant certains acides faibles et les systèmes dans lesquels on retrouve des liens C—H˖˖˖O/N et O/N—H˖˖˖π ;
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liaison_hydrog%C3%A8ne</t>
+          <t>Liaison_hydrogène</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>Propriétés des ponts hydrogène</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Trois grandes caractéristiques définissent les liaisons hydrogène ainsi que leur interactivité :
 Les liaisons hydrogène sont des liens intermoléculaires dont les atomes constitutifs respectent une certaine directionnalité. Dans un réseau de ponts H, leur architecture est donc très optimisée. Cette propriété des ponts H permet à l’eau de cristalliser de façon définie pour se changer en glace. Les conditions de refroidissement affectent la géométrie du réseau cristallin de la glace. Ces interactions sont aussi responsables des propriétés remarquables de la glace et de l'eau : diminution du volume à la fusion et densité maximale à 4 °C. En conséquence, la glace flotte sur l’eau liquide ;
